--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/17_Bingöl_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/17_Bingöl_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D0B2BC-56E5-43B3-BF89-151EB79EC214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9893C1-1DC9-46BC-AAA2-353B21A8DA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{AA1D7937-D9BA-4A65-8CA3-7302F168E7A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{FF74AD77-9EF2-4161-8D96-B495F2F03DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C82F565-E02F-46A5-91CA-50F0592C0176}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3BDABE9F-1D73-45F5-937B-FAC8CEC1CE65}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{FD5981A3-C503-481E-B998-86A34FF8FCE4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4EC16AAF-3A42-407E-85D2-CFC0B1A4EB7A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{33DE88D5-3210-46C3-BE9E-18EF74367875}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D45F4B18-4291-46E3-80B7-F67BCC913DA5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5BE80DE8-358D-44F9-8EA5-7E75470ADC27}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{87297C86-3A92-4728-9249-B55F05CBE7F7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7D678FAF-E652-4AE6-9B1C-23A76DF54C3A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4C6BD55-10A4-47F4-A36F-DE63217DBDBC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C234DD3D-36B8-48F0-BD66-D8824D5C9F5A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7D3C980E-E0ED-4B01-A23F-2ECDE3E63454}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{81EBE9FC-58D2-438F-A191-19651F772F31}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AF2C7F15-7ACD-45ED-9E6F-A5EB2F2BD233}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB73DB9-D428-48ED-99D6-0EC923642B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E032F17-D12F-48E8-8193-92B9AF57BE94}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2546,18 +2546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1B3CFC2-36A7-4DC1-8FA7-969E525F4900}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53D2DA5B-0A3D-4AD8-ADC2-0C4C51278C95}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA0BAD4A-7EF2-4385-88C0-52E4E614BEBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8EA7221A-26AB-4399-B429-281D89906880}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DA769E33-6A87-4E53-8177-6F0651C489D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{992141AD-FD91-49A5-8138-505C55C6B175}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B479D5EE-1299-43AD-B4C4-9F007D70896C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A846727-2591-4C96-8661-903F79B070CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AE24A41-DF7F-49B3-8BE6-7846AC322F1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBF6D516-EEC4-47D3-B4CE-B416BA3DD172}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D764862C-3B05-483F-8171-D79A520E5A98}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3118F85-D989-45AC-BE32-2CAA3896259B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{829C46EE-4C8A-4C62-A6E2-E196C54AA945}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41388277-7A76-46A9-A063-336B8F1326B6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{025C1F4B-AEA0-4AE4-959D-1A1A03C66507}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C580C2F1-8414-43B0-873B-17378E9F3E3E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96F133DF-3167-4DAE-B416-F7ECBD4D6666}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8A75CEC-B4B6-4083-98EB-925C405B37AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7759478-D847-4FCA-BFB0-0862DE962F45}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE169C10-8357-467C-A862-301D5F58059C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53DCA032-ED05-498B-B1E1-CC4165408AFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B368269-5A68-48C0-9B3C-4E4D06333EE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6C7BD0B-73C3-4368-A3E0-F7902D898791}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64A2CF66-00B3-4F19-86E5-1A05C5CD740F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF40D3-F69D-4DAC-A4F2-1474C5397067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0039B210-9489-445F-8339-BA3C896BEF6A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3760,18 +3760,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3A487F7-3161-4830-977B-E397E76BF4F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{957C6995-AFA2-4AA1-8E0A-B37AEBB76F31}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{525E57C3-2441-4CCE-8C5C-60753C0B1AD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB01D61B-3A1C-4109-8CEC-F2DB67132AFB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4FDD0736-EA08-45BD-9B62-689F0B8955C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D704264C-9392-44E5-BC1D-B19C29CC44D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D0B9F5D-D305-441F-840B-13DBC62B2936}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7946DC2D-0EA1-4E1D-9AE9-A42D20CF7F30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8832EEE-99C5-4624-BA18-609C7F76D31A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98078A70-3CCB-4FC0-B723-A51BF5E9D048}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EAA6835-26CF-43EC-8391-12CCB9C38F82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BA17516-B0F8-4600-AE61-EB9F8D044876}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAD7073F-5C3C-4EB3-988D-C5534D4996C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{041D7A8E-1423-46B5-A60B-C9CED88ADA43}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{182F62A9-4CE7-4F75-80D4-1D0A030CCE93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01684DB9-D712-458D-91E0-583B59AD6A3E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4AB5F28A-CB09-4859-8916-E609CDF76FB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{633F7DD8-5B76-4226-A7B9-DB80307C5B8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61CB8C04-30FC-443A-8D36-800285A93DB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{911345AB-67A1-4650-BA40-24D4B56752CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1503F1E5-C58C-42CA-A6A5-48A759114BEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC37E43E-5177-4966-A68C-B36522C1B696}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83E51C73-4978-4A0D-B723-AF67007089B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F026F36-F3C9-4258-9003-E25DE9216D9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3784,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42757696-2073-46D5-A54A-5C71AD168010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A509B82A-E55F-4622-9C8F-1CE3E6BEFDA6}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4976,18 +4976,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9762771-821C-4BA3-8C35-413F28F9661D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB9E53CD-1FD3-4821-803E-49334BCBD845}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65BDAF68-821E-458D-B0FB-7222BE3A9CC9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECE46BF3-9357-492F-B821-0DF9FC3130CA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CBEA968B-3954-43E2-8977-FC6E0947B5A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{517B6270-1C3F-4BA1-BE8B-E30BD32B11FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4347FB4E-D5A3-465E-AC4F-7B0BC402F1D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{170EC495-8BA4-4DDA-AA0C-3C6883F2A74B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A3F1F1E-A1F5-4583-883E-2DFFF7B46398}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE7F744C-8CC4-4375-A8D2-0A15B3E9FE16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{808204A2-EB91-4286-AA60-304C8C215F1A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17D3DE14-F63A-4E38-ACDE-3421F912BA42}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F65A81F-5EEA-44C2-A680-1153F8E7372A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6C9EDD2-4444-494C-AF6B-D21FAC949C8C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E2E57E32-BCEE-4C63-8BDE-44E4ED40F8A8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8026CBAA-78A7-44ED-98C6-9D1E52DA2E92}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8476D100-C70E-41B7-8CDA-8B3DC3E165A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED2DA031-00F4-4F54-8EFA-CE8DD8E8B64B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4A8DDAE-B1EF-4F1E-A701-5170076EA682}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58048BE8-5CBA-4AD0-8F57-7DC8391E9AAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35F05150-9CDA-4B23-B41E-15B1D00EDBB0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04015C0D-803A-4E14-9E5E-6601E90B28E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFF3D54B-B20F-4CBC-AB60-EC5238820FCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F8BE07E-1043-41E7-92CB-FD6889F1647B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5000,7 +5000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69711C9C-174A-484D-BF41-9C619C04D5B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA61462-D922-4D00-A616-20D0AC0B71E9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6172,18 +6172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C385AD77-C0C7-4A4C-B8CA-B1E9AFF7AC99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC8D3297-C5D0-420E-9720-37FFDE2A6B8A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C6E46AD-C49C-4BB1-8E37-6A7832B96C68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8FC01DB0-29CE-463F-A574-A2B466A9E497}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A75377A3-BE1C-4296-BBF4-8573C21D2E7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B806A06-0BAF-48FC-A193-59EFD6C2710C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A173B1CC-BDE1-4168-B47B-72E79650DF36}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F7D08C0-0C81-4067-B058-62D5448E36AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1778F4E-3834-48F3-AA44-DBA358EA2585}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E22FA3A-DB25-48CD-80C0-20E1423C8A1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D83EDA21-52F0-41C6-AD32-2D9FCC063A45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF18C752-B596-4EE7-8326-EDD57F936F13}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA27606E-86EA-49D4-85F2-73653A782191}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2A8EE84-D1DF-4763-9283-398AF38F64EC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F73DFFF-041D-40B1-9077-00B682021C28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E9C7BF5-AA5C-4F40-8A37-C9190E961FDB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7B00BDD4-D948-4FD4-8612-C13F5A98FCCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{538D565D-7B9A-4B5D-BFF1-B960BCA8AD70}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22F3E117-EF41-4A63-BBBE-5D6CD9390437}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1CBF40B-86CF-4A8D-973B-0E2FB2520BC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09AA2584-10F2-45E3-95E9-AD32B1B5D828}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41D688B5-1A63-4DEA-A6D0-520FAE7A852A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{157DAD7B-4C77-4835-BC0A-72622CAD21B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{030CA84A-430A-4BFE-8D06-447E3E6A142F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6196,7 +6196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF5A0E5-6098-4AE9-9EF7-CE1B4FDE0B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731CDCA2-A3F9-4A72-8941-FD0E83AF5F64}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7405,18 +7405,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE713127-893F-4849-BD7E-9EF896189782}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36951D74-B70C-416A-9CAB-B0BFF517F844}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF54CD03-1278-4FC6-93E7-628FF2CBA970}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59FA1DB6-EEC6-4343-95FF-AF1D885E36AA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F0F42722-73F4-477A-BBE6-AC174D1CD0A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{466D8904-0403-4C8B-AF8E-FBF0919F394A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA04FB87-527A-478A-B205-A03AC53C6D0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{854605D1-2C9E-4F23-BFCE-37EA399CC634}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48EFB3DA-CDF1-4032-A028-1910C8B088C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1586F595-8AA9-4957-BDA5-EC3DE5C048FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0DAF748-C0C5-487D-99D5-AF95F0EA50E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82C62224-1C02-4BA9-A817-91D819B23114}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC333580-D96E-424A-946E-7A47C25C6A38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C7A4E8F-6BA9-4DF2-937F-75079F165343}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D964A7B1-3B48-40EB-BBB1-A711BF2FA457}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D890678-CC5C-4189-A396-C0AA4A53784A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CDEA0F5F-1294-4434-AC36-C10857E058CA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F130691-E431-45E9-B6B6-BFEEDB7BF95B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B62166F-2EE8-4293-BCA3-237538707D99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FBA5FA2-C8E3-4A3B-A5CC-91B660BABD25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB28785D-51B9-4C82-AE35-470CC4D1CA0B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF197AB9-DDE9-4639-B0CB-0D313D21E5E2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{667B96CD-248D-4856-9956-8C16BBF9B075}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09CD3E12-EF64-42DB-8CC6-D684DF101798}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7429,7 +7429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF3915C-D44B-4A91-BB31-A0049C866FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67AADCD-EB3A-4825-B5C2-2799F8F11379}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -8635,18 +8635,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C7AD729-361E-450F-984C-ADA5F00F302B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB96E69D-C23B-47CD-844E-3653699FFBB0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C3C9885-BF5F-43EC-A5F9-D8F930CC91A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDCBDA8D-EE84-4665-B52D-59DD0E5A5E50}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{248ADA5E-2737-481B-B7AA-E7BFA862AA4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8C59E5D-A259-4493-A393-17699AFB4F52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE18A5BB-60AA-46B7-B990-80F12A2779BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C780529F-8562-4FE0-99DE-7BA61ACB6D1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E502682-0FA2-42D2-855F-9E71A90DDA23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4810D2F4-2590-46DD-86F1-231BBB765ECF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56F09ADC-EE30-4525-ADBD-3BDEA59CBEE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C93439BD-F6C6-42E3-A741-89C9F5613CD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71700225-F425-4341-87C9-64886BBCE09F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DD4815B-FD5D-4BAA-9D11-193029192808}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8DBFCE5A-25D4-4288-B799-C5C23C04242E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18B13416-0567-40C8-AE7D-BE4EDC048B26}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1CBC2487-A721-4854-B771-07932B4F1A59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A208DF52-D126-4B5F-99D3-690F5C3EE12D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD140CCA-4096-4149-ACF3-016BAC2F8550}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{024B5AA7-73AA-4B63-AE32-2D8408CA171D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0F1E923-329D-4971-AB9C-567C7370B7F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0EAC726-C98B-4CF9-9FD1-5A3A68AFAC40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FD3C80D-FA54-4B46-90E1-4D9CE78BD0CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1A8BA03-4FB0-471F-9DC2-389D44B99AA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8659,7 +8659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160021D3-C97C-43E5-822F-7EE7EAC71006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375E1F77-34BB-432D-9747-B3CE196F1F2D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -9865,18 +9865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A110233-8980-481E-97E5-CEA0045D09F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1A98978-D971-49F5-8F14-C30E3C753248}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65F46B3E-8445-4038-BDC7-8AC181D7A79F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C1D8FD9-D754-428D-A3C8-AE1F25FF0F77}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8F18E36C-12E6-46FF-9D57-E9702D8F5802}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5428258-2DFB-4D86-AF3D-6FD6A5D8895D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C924751-0725-4797-A6CE-C98067ED5F8E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78C9A596-AB5C-4342-99BD-D457188064B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C118F1B-DE52-4EEB-9465-4806525F932F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E23F96BA-EDF9-41ED-BEB9-F53D3C982D53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F080C13-A110-462F-8F1F-2B0EE47077B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92FB71F8-F399-4B6E-9888-1815AF32EFD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE02BDA-5267-4B9F-A32A-06ACC347AC1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AC96DF9-083A-4033-ACF8-5AE048058FA9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE9829E4-55C9-46CD-B833-2A7BC740C92D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB59DD21-B7FC-4E69-B39D-6649B7DD97B7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CEED405C-C650-4354-BF21-6B32B05A241B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5606EDDD-DF6B-415C-83E6-6E76505711E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABA68886-C5E9-4640-B019-6EB4B289A99D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0F50AE2-2FD6-45A5-87B0-707A8C8C713E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2778771D-CCE1-4CE8-A49A-792CE0E01B48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB113AE6-70D3-41CE-8274-D63A24CC6C31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15E1F82C-D655-4019-B687-C3A802EADAA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{133D9CA1-C970-4749-9962-B94795A0BD87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9889,7 +9889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A5E8C-220C-4A2D-B0F2-E71F3AFDBF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F44A50-FF50-4898-85F1-F76B617604D2}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11091,18 +11091,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{470A3587-304C-4B86-B93C-E17B20D5C713}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A6CD578-FC98-400D-B02A-8F791AF24194}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAE02A15-58EB-4A37-BA7C-81D64659CFC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F427B47C-416F-4474-93A4-C986E4DAA8D0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B8EB40CC-9A69-4C2C-A953-E3746907276D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F021B0F-E511-4054-BD1E-6A0BB3E4956D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67C02D15-8AC1-4C96-99E3-74275E853CBF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{635C4E74-43A8-4208-94DB-E1E185F5B467}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F98300A-ACFB-40EB-AD06-BCB178B79719}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81AEB3E8-231D-458F-BDC0-D166146C752C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75F63366-0DC6-4E75-8ECB-F995567FEFDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CCC9BC5-E9C7-4A41-BE78-6B51CF13DC60}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C427645-4D20-4114-ADE1-9DC891F8C7BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88E940C2-BE78-4C6F-AB59-E2B6755F743C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9CC4A9A-B7C5-4FBB-8A18-B7F7553E7A3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A3D24BF-704E-4669-83DB-06AB92B03937}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6861F821-511F-4DD5-8EBA-EEBFAA732A77}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E36740C-B78E-4343-BFA0-B93886DE20C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90653F5A-4E46-468D-84CE-AB0CBBC19C37}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BBBC86D9-6202-4DCD-8A70-50065EA40C1D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDE318E4-2849-450E-B836-A3F9E3D549A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7AA72F4-F98D-49ED-8880-BAB42B7053B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1208956-D3A9-4451-A1A6-C96FF7B9295A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12E84230-45B6-4A0E-A1CB-4A43EDC26FA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11115,7 +11115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEDA1E3-2623-4346-A915-19C71175FCC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5695E9D-68D5-4E63-B558-AA85A56D475E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12323,18 +12323,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A7AFBF6-9FE8-477A-84D8-38E5CA95A8D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD051442-E4E3-4928-8218-CDA4DBCF904A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D08145F-952C-4985-9376-32EA3E9C4B71}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA3FD9AA-6D08-4FA5-93DB-63707932D6F3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FA9B47DC-0C93-4A1E-B8CF-5CF3BA315D75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{784E7A58-83A8-4031-93E4-9F0A796FB6B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0855B781-FA84-44F4-8E1D-336935ED790C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B168EDE-FC43-41F5-AA1B-EAA503B07E2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4B7A0E1-A251-4FBA-8366-568E1405AA31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2CC06D0-B2E5-4EE1-B696-A0F0DED875CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAB80E86-A28A-409C-B200-7747178E54AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9D9C9D8-1DD9-45CA-98BB-61C7AFFEA154}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A5D5BD5-F0C1-4F1B-876C-5F5DC1778EDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2078DBC9-520C-4633-817F-4EFE3147D112}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25661922-2844-46D0-BDEC-8364263BDE2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13769E0A-60E4-41DC-B608-27D19546223C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3D43D6EB-4524-4BF9-84C4-F954B7ACD862}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E74421D0-3564-4B66-B9D4-B272C7CDC2A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0434923-642F-4FCD-8D40-01BA21C9F126}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{576A7F90-2FDE-4287-9479-93E4AE832CC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFA5611B-C166-4E4B-91F4-AA3C23431978}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECBCBA8A-18F5-4045-BF39-0684B00D117F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35A6EFE4-60C9-4C65-A3C3-F78CF0344920}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27DF5A44-3043-4983-BFDA-F7A0ED73A3DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12347,7 +12347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219973A4-D19C-4CCA-B474-6A2B119165C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C75BD51-2B24-4D04-B34A-10675995F928}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13545,18 +13545,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4B33381-3601-47F3-94F3-6412370DAC1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A67A80F-129D-48C3-841D-C1E598364365}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C6765FA-D7E8-4E67-A4EB-D90F8170A975}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62A5F89F-A623-42A6-AF22-0ED3E1C629DC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F4EE1578-BC80-45CE-B692-2142DF682E8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{309E9791-B4A0-4614-A21D-37319C6E7A84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90FC4A8A-5C40-48EA-B5F2-3971F21B4FD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4E30E97-5533-4777-9F14-DE931DA6AC0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{780B5039-474D-4194-A0B0-A97C939DCB70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29AD2B23-AEA9-4C9E-A25C-52DA62B225CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7B424B5-E795-4E98-B317-29B06985D72F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F20B0CD-5790-48BF-9C9C-3E1BE05FCA36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0805796-DC51-4993-BCB3-8294DAD55C47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98C5AB9C-080E-41C8-9475-F54F0E2469BB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{064189E0-8CEE-4072-9BB5-E5BAA76EFFFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE0DC648-F968-4DC6-9417-3056DECD9F31}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1D740823-E832-4E73-884B-109CBF2D4534}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D87D2674-2DDF-4303-A416-386518EA65D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1050F0B3-808F-4BB2-B235-D4930EAAB2EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A06BC7F-3E81-472C-9428-6FE7C09CBD3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BA05717-D8B2-4C4D-A950-45EFBD551DD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AB5AF01-B79C-4D36-A548-2411F6D43BE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D799E177-C44D-4727-8537-97D07F9F0E83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC51865C-BEE2-4BC6-A428-669D9B97C2E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13569,7 +13569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED24A9-ECF2-4669-84DC-A60DFE9E7712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380726A-C1A9-41FD-A20C-7BF59E63CF64}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14769,18 +14769,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B30F4846-5F39-4039-A90E-71687EF5FEC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6CC8364-A32C-4FA8-99A9-61AABA2EA3EB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF36E981-6F12-4AAA-85B1-D5118E171BCF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F5AF4A8-F78D-4053-82A0-394A3200AC0F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EFEAA4A0-2A65-4118-A19B-331CE546D113}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B91DD31B-2A89-4B0E-8193-94A1703EB203}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27B2C6DB-5AA9-4CCA-A253-CEEB248E6B90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A8A79CB-CC6C-437E-8AA5-C4A1F5C5B3C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB613C45-4F5F-4C23-BD31-AF4E9983C603}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CFF9292-F5C5-466B-961C-56073A251C75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC8073D8-6773-431B-957B-90C0E6F2271F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37CEE3DA-B9D2-48ED-B05A-332CA6D69B80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF5E46D3-6407-4584-A4EA-A2C2FBEC26B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEA5A92D-BC96-4485-B1A5-7D9B578C620C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C0ECE5A-0FB3-4D0E-8D9D-DAF36503859E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13B3D219-ECE6-43A9-AB58-443E08896F2F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{77FD8262-9D07-4CE4-8E45-EF1D67EA1F7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC61A7E6-430B-4D52-BD96-DED48FA1612B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{850AFC1F-44C3-49E6-90DE-B034D5DAC3B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C05D8DE-6B39-400B-912A-C790FDB5A8C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3424F4F7-7013-4956-8973-1F5173D25189}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A93F2643-5B8C-4E2A-89AF-9813D42B42A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18D38C19-2423-44B3-9967-A4639F590B90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C1FCEEA-DA03-485C-95D5-4D77AB625F1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14793,7 +14793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F04A5B-1B26-48F9-BC2E-93898CB82625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4AC070-3B60-4279-A69E-3438A428A097}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15993,18 +15993,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CE5A702-4791-4EFF-A3C5-CB7CC2BB7170}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFD09C9D-7729-487F-AFDC-0CE2E4EE922C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13923A43-C912-4F0F-859E-E45B5594620F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D28966D0-97DC-41D3-86A6-52E1ADC9E023}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EDFA17B9-F71A-4F5D-868B-0779663E7062}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E2DCC39-5BDF-4C26-8C2C-26855F520CB2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7CFF61B-DCF3-4E0B-AB9B-443219801F5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2926AEF6-42C7-4D7A-BE91-763E5E26EFC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4511D42-CE76-4AD5-892E-9BE2CD4F8450}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E1E7935-2952-4D49-BE65-2CFD7F4997AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52CC688D-A88E-40AC-BE6E-28EAF9FF9C67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDB038F2-ED73-4EDB-B1A7-4F48403B6356}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B47C623-4FB4-4042-AA0B-BE876E42C9CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F35A56EC-0B19-41F0-B4F0-F8D954EAEC44}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DD985F7-623F-4C85-902D-DB4F66F969A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF7C756E-C029-4F02-A237-F7776FE0AE25}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7B1CB14B-DD69-4DCB-A442-7DCC993D851B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0431CDAD-140B-45D1-A3AF-EA1CB09C15A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29940148-E80F-48BF-AD93-901AF64A1696}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD547795-51D2-491C-A87C-9E048D0FB36C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{051ECB31-3DBA-41C1-84EE-C478F62D2F1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBE0D683-9DF8-402E-BF3D-59358FD40A40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09D64370-0519-422D-A399-B8AD553FB284}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{230106E0-30EB-42FA-B1B7-336F4D531F58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
